--- a/datasets/bird-species-ebird-code.xlsx
+++ b/datasets/bird-species-ebird-code.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dazedinthecity/Documents/GitHub/ceu-ds-project-groupB-2026/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F164E4B6-3228-A945-B323-D88302F71861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5271A5A-2B70-224B-9557-42D4894C921A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="21460" xr2:uid="{F39A64E3-8872-1443-8824-307F3DBC61A7}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="33320" windowHeight="21440" xr2:uid="{F39A64E3-8872-1443-8824-307F3DBC61A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
   <si>
     <t>Bird Species</t>
   </si>
@@ -131,10 +131,68 @@
     <t>gswwoo1</t>
   </si>
   <si>
-    <t>House Sparrow</t>
-  </si>
-  <si>
-    <t>houspa</t>
+    <t>Great Tit</t>
+  </si>
+  <si>
+    <t>gretit1</t>
+  </si>
+  <si>
+    <t>Group 2: Autumn Migrants</t>
+  </si>
+  <si>
+    <t>European Robin</t>
+  </si>
+  <si>
+    <t>eurrob</t>
+  </si>
+  <si>
+    <t>Nocturnal</t>
+  </si>
+  <si>
+    <t>Sedge Warbler</t>
+  </si>
+  <si>
+    <t>sedwar1</t>
+  </si>
+  <si>
+    <r>
+      <t>Fluctuating:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Tied to African rainfall.</t>
+    </r>
+  </si>
+  <si>
+    <t>Garden Warbler</t>
+  </si>
+  <si>
+    <t>garwar1</t>
+  </si>
+  <si>
+    <r>
+      <t>Stable:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Generally secure.</t>
+    </r>
+  </si>
+  <si>
+    <t>Willow Warbler</t>
+  </si>
+  <si>
+    <t>wilwar</t>
   </si>
   <si>
     <r>
@@ -147,17 +205,330 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Sharp drops in urban centers.</t>
-    </r>
-  </si>
-  <si>
-    <t>White-throated Dipper</t>
-  </si>
-  <si>
-    <t>whtdip1</t>
-  </si>
-  <si>
-    <t>Amber (Local)</t>
+      <t xml:space="preserve"> Loss of habitat on flyways.</t>
+    </r>
+  </si>
+  <si>
+    <t>European Nightjar</t>
+  </si>
+  <si>
+    <t>eurnig1</t>
+  </si>
+  <si>
+    <t>Eurasian Blackcap</t>
+  </si>
+  <si>
+    <t>blackc1</t>
+  </si>
+  <si>
+    <t>Common Starling</t>
+  </si>
+  <si>
+    <t>eursta</t>
+  </si>
+  <si>
+    <t>Diurnal</t>
+  </si>
+  <si>
+    <t>Common Crane</t>
+  </si>
+  <si>
+    <t>comcra</t>
+  </si>
+  <si>
+    <r>
+      <t>Increasing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Wetland protection success.</t>
+    </r>
+  </si>
+  <si>
+    <t>Arctic Tern</t>
+  </si>
+  <si>
+    <t>arcter</t>
+  </si>
+  <si>
+    <t>Red / VU</t>
+  </si>
+  <si>
+    <t>Group 3: Other Migrants</t>
+  </si>
+  <si>
+    <t>Barn Swallow</t>
+  </si>
+  <si>
+    <t>barswa</t>
+  </si>
+  <si>
+    <t>Common Cuckoo</t>
+  </si>
+  <si>
+    <t>comcuc1</t>
+  </si>
+  <si>
+    <t>European Bee-eater</t>
+  </si>
+  <si>
+    <t>eurbee1</t>
+  </si>
+  <si>
+    <r>
+      <t>Increasing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Range expanding north.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Increasing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Adapting well to gardens.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Stable:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Highly successful species.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Stable:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Resilient, but routes are at risk.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Recovering:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Heathland restoration success.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Increasing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2026 "Bird of the Year."</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Declining:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Impacted by intensive farming.</t>
+    </r>
+  </si>
+  <si>
+    <t>Red List / VU</t>
+  </si>
+  <si>
+    <r>
+      <t>Sharp Decline:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Bird flu and prey shortage.</t>
+    </r>
+  </si>
+  <si>
+    <t>Spring Arrival</t>
+  </si>
+  <si>
+    <r>
+      <t>Declining:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Insect loss and farm changes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Severe Decline:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Climate timing mismatch.</t>
+    </r>
+  </si>
+  <si>
+    <t>Whimbrel</t>
+  </si>
+  <si>
+    <t>whimbr</t>
+  </si>
+  <si>
+    <r>
+      <t>Nocturnal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &amp; Diurnal</t>
+    </r>
+  </si>
+  <si>
+    <t>Breeding in Iceland/Siberia; they pass through European coasts to reach Africa.</t>
+  </si>
+  <si>
+    <t>Little Stint</t>
+  </si>
+  <si>
+    <t>litsti</t>
+  </si>
+  <si>
+    <t>Tiny waders breeding in the Arctic tundra; they flood European mudflats in Autumn.</t>
+  </si>
+  <si>
+    <t>Curlew Sandpiper</t>
+  </si>
+  <si>
+    <t>cursan</t>
+  </si>
+  <si>
+    <t>VU</t>
+  </si>
+  <si>
+    <t>Breed in Central Siberia. In autumn, they turn European marshes into a "sea of brick-red" feathers.</t>
+  </si>
+  <si>
+    <t>Green Sandpiper</t>
+  </si>
+  <si>
+    <t>gresan</t>
+  </si>
+  <si>
+    <t>Breed in the taiga of Russia; they are common sights in small ditches and ponds during passage.</t>
+  </si>
+  <si>
+    <t>Black Tern</t>
+  </si>
+  <si>
+    <t>blater</t>
+  </si>
+  <si>
+    <t>Breed in Eastern Europe/Asia; they gather in massive "clouds" over inland reservoirs in May.</t>
+  </si>
+  <si>
+    <t>Honey Buzzard</t>
+  </si>
+  <si>
+    <t>eurhob1</t>
+  </si>
+  <si>
+    <t>Breed in the vast forests of Russia; they pass through "bottlenecks" like Gibraltar in thousands.</t>
+  </si>
+  <si>
+    <t>Red Knot</t>
+  </si>
+  <si>
+    <t>redkno</t>
+  </si>
+  <si>
+    <r>
+      <t>Nocturnal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / Diurnal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>VU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Vulnerable)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -170,14 +541,101 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Sensitive to river pollution.</t>
-    </r>
-  </si>
-  <si>
-    <t>Eurasian Wren</t>
-  </si>
-  <si>
-    <t>eurwre1</t>
+      <t xml:space="preserve"> Sensitive to the loss of intertidal feeding grounds.</t>
+    </r>
+  </si>
+  <si>
+    <t>In spring, they gather in the Wadden Sea by the hundreds of thousands, turning brick-red.</t>
+  </si>
+  <si>
+    <t>Ruff</t>
+  </si>
+  <si>
+    <t>ruff</t>
+  </si>
+  <si>
+    <r>
+      <t>Decreasing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Habitat loss in the Siberian tundra and stopover sites.</t>
+    </r>
+  </si>
+  <si>
+    <t>Males have incredibly diverse "collars" of feathers used for mock-fighting during spring breaks.</t>
+  </si>
+  <si>
+    <t>Garganey</t>
+  </si>
+  <si>
+    <t>gargan</t>
+  </si>
+  <si>
+    <r>
+      <t>Decreasing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Vulnerable to the drainage of wetlands in Africa and Europe.</t>
+    </r>
+  </si>
+  <si>
+    <t>Known as the "Spring Teal" because it is one of the only ducks to winter entirely south of the Sahara.</t>
+  </si>
+  <si>
+    <t>Wood Sandpiper</t>
+  </si>
+  <si>
+    <t>woosan</t>
+  </si>
+  <si>
+    <r>
+      <t>Stable:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> One of the most common passage waders in inland European wetlands.</t>
+    </r>
+  </si>
+  <si>
+    <t>They migrate in a broad front across the continent, often landing in tiny, temporary puddles.</t>
+  </si>
+  <si>
+    <t>Osprey</t>
+  </si>
+  <si>
+    <t>osprey</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Green / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Recovering</t>
+    </r>
   </si>
   <si>
     <r>
@@ -190,58 +648,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Thriving in diverse habitats.</t>
-    </r>
-  </si>
-  <si>
-    <t>Great Tit</t>
-  </si>
-  <si>
-    <t>gretit1</t>
-  </si>
-  <si>
-    <t>Eurasian Blue Tit</t>
-  </si>
-  <si>
-    <t>blutit1</t>
-  </si>
-  <si>
-    <t>Group 2: Autumn Migrants</t>
-  </si>
-  <si>
-    <t>European Robin</t>
-  </si>
-  <si>
-    <t>eurrob</t>
-  </si>
-  <si>
-    <t>Nocturnal</t>
-  </si>
-  <si>
-    <t>Sedge Warbler</t>
-  </si>
-  <si>
-    <t>sedwar1</t>
-  </si>
-  <si>
-    <r>
-      <t>Fluctuating:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Tied to African rainfall.</t>
-    </r>
-  </si>
-  <si>
-    <t>Garden Warbler</t>
-  </si>
-  <si>
-    <t>garwar1</t>
+      <t xml:space="preserve"> Benefiting from nesting platform programs in Northern Europe.</t>
+    </r>
+  </si>
+  <si>
+    <t>They are highly visible in spring as they follow major river systems (like the Rhine or Danube) North.</t>
+  </si>
+  <si>
+    <t>Sanderling</t>
+  </si>
+  <si>
+    <t>sander</t>
   </si>
   <si>
     <r>
@@ -254,259 +671,34 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Generally secure.</t>
-    </r>
-  </si>
-  <si>
-    <t>Willow Warbler</t>
-  </si>
-  <si>
-    <t>wilwar</t>
-  </si>
-  <si>
-    <r>
-      <t>Declining:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Loss of habitat on flyways.</t>
-    </r>
-  </si>
-  <si>
-    <t>European Nightjar</t>
-  </si>
-  <si>
-    <t>eurnig1</t>
-  </si>
-  <si>
-    <t>Eurasian Blackcap</t>
-  </si>
-  <si>
-    <t>blackc1</t>
-  </si>
-  <si>
-    <t>Common Starling</t>
-  </si>
-  <si>
-    <t>eursta</t>
-  </si>
-  <si>
-    <t>Diurnal</t>
-  </si>
-  <si>
-    <t>Common Crane</t>
-  </si>
-  <si>
-    <t>comcra</t>
-  </si>
-  <si>
-    <r>
-      <t>Increasing:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Wetland protection success.</t>
-    </r>
-  </si>
-  <si>
-    <t>Arctic Tern</t>
-  </si>
-  <si>
-    <t>arcter</t>
-  </si>
-  <si>
-    <t>Red / VU</t>
-  </si>
-  <si>
-    <t>Group 3: Other Migrants</t>
-  </si>
-  <si>
-    <t>Barn Swallow</t>
-  </si>
-  <si>
-    <t>barswa</t>
-  </si>
-  <si>
-    <t>Common Cuckoo</t>
-  </si>
-  <si>
-    <t>comcuc1</t>
-  </si>
-  <si>
-    <t>European Bee-eater</t>
-  </si>
-  <si>
-    <t>eurbee1</t>
-  </si>
-  <si>
-    <r>
-      <t>Increasing:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Range expanding north.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Increasing:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Adapting well to gardens.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Stable:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Highly successful species.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Stable:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Common garden visitor.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Stable:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Resilient, but routes are at risk.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Recovering:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Heathland restoration success.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Increasing:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2026 "Bird of the Year."</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Declining:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Impacted by intensive farming.</t>
-    </r>
-  </si>
-  <si>
-    <t>Red List / VU</t>
-  </si>
-  <si>
-    <r>
-      <t>Sharp Decline:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Bird flu and prey shortage.</t>
-    </r>
-  </si>
-  <si>
-    <t>Spring Arrival</t>
-  </si>
-  <si>
-    <r>
-      <t>Declining:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Insect loss and farm changes.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Severe Decline:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF1F1F1F"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Climate timing mismatch.</t>
-    </r>
+      <t xml:space="preserve"> High Arctic breeder that uses European beaches to refuel.</t>
+    </r>
+  </si>
+  <si>
+    <t>Famous for "running" like clockwork toys along the shoreline following the waves.</t>
+  </si>
+  <si>
+    <t>Grey Plover</t>
+  </si>
+  <si>
+    <t>greypl</t>
+  </si>
+  <si>
+    <r>
+      <t>Decreasing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Impacted by climate change in their Siberian breeding grounds.</t>
+    </r>
+  </si>
+  <si>
+    <t>Often called "Black-bellied Plovers" in spring when they molted into their striking tuxedo-like plumage.</t>
   </si>
 </sst>
 </file>
@@ -900,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F647FF5E-E8E9-454C-8532-233F586C73DE}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1006,7 +1198,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1020,88 +1212,88 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
@@ -1111,234 +1303,384 @@
         <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D15" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="B27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="E30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
